--- a/附图/运动功能重要性/重要性统计.xlsx
+++ b/附图/运动功能重要性/重要性统计.xlsx
@@ -3,17 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C80B79-455A-445E-8C6F-A977BEAFABEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89391B67-FC53-4C79-BDA0-CB3346AC2F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$2:$I$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$2:$I$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>马蹄足</t>
   </si>
@@ -88,12 +84,16 @@
   <si>
     <t>踝翻转</t>
   </si>
+  <si>
+    <t>各关节运动功能的相对重要度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +414,10 @@
                   <c:v>1.7300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3499999999999999</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,37 +614,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -644,6 +624,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>各关节运动功能的相对重要度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -690,10 +681,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.23307291666666666</c:v>
+                  <c:v>0.23307291666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4218750000000014E-2</c:v>
+                  <c:v>7.421875E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.3802083333333329E-2</c:v>
@@ -702,13 +693,13 @@
                   <c:v>0.21223958333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22526041666666671</c:v>
+                  <c:v>0.22526041666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.1328125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17578125</c:v>
+                  <c:v>5.8593749999999993E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,8 +718,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="165"/>
+        <c:overlap val="78"/>
         <c:axId val="1376453183"/>
         <c:axId val="1379867215"/>
       </c:barChart>
@@ -804,6 +795,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -847,6 +852,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17777777777777778"/>
+          <c:y val="3.7615193934091573E-2"/>
+          <c:w val="0.40555555555555556"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -864,9 +910,8 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent1">
+          <a:alpha val="96000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1981,16 +2026,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158115</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:rowOff>340995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2017,16 +2062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2317,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="B17:H17 B1:H1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2517,8 +2562,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="6">
@@ -2536,8 +2580,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="6">
@@ -2638,30 +2681,30 @@
         <v>1.63</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:I16" si="0">SUMPRODUCT(F2:F15,$I2:$I15)</f>
+        <f t="shared" ref="F16:H16" si="0">SUMPRODUCT(F2:F15,$I2:$I15)</f>
         <v>1.7300000000000002</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>1.02</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.3499999999999999</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>7.68</v>
+        <v>7.6800000000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B17">
         <f>B16/$I16</f>
-        <v>0.23307291666666666</v>
+        <v>0.23307291666666663</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:I17" si="1">C16/$I16</f>
-        <v>7.4218750000000014E-2</v>
+        <v>7.421875E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -2673,19 +2716,24 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.22526041666666671</v>
+        <v>0.22526041666666669</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.5625E-2</v>
+        <v>0.1328125</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0.17578125</v>
+        <v>5.8593749999999993E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
